--- a/data/input/absenteeism_data_5.xlsx
+++ b/data/input/absenteeism_data_5.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57575</v>
+        <v>28995</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alana Ribeiro</t>
+          <t>Lucas Teixeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,22 +494,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45098</v>
       </c>
       <c r="G2" t="n">
-        <v>9781.41</v>
+        <v>6304.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89935</v>
+        <v>35675</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiza Costa</t>
+          <t>Larissa Peixoto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,118 +519,118 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>4628.96</v>
+        <v>3424.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>26666</v>
+        <v>56714</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Beatriz Barbosa</t>
+          <t>Bruna Mendes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>9264.23</v>
+        <v>6338.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>53734</v>
+        <v>86503</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emanuel Gomes</t>
+          <t>Dr. Luiz Otávio Souza</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>3448.28</v>
+        <v>2507.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35172</v>
+        <v>25242</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Carolina Castro</t>
+          <t>Mariana Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>6277.26</v>
+        <v>2985.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99011</v>
+        <v>67460</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Thales Aragão</t>
+          <t>Gabrielly Aragão</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>10660.38</v>
+        <v>5440.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>32133</v>
+        <v>14376</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Souza</t>
+          <t>Davi Lucas Pereira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>8648.360000000001</v>
+        <v>5751.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39758</v>
+        <v>31332</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>André Almeida</t>
+          <t>Emanuel Silveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45092</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>3235.94</v>
+        <v>5797.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73703</v>
+        <v>9719</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gustavo Henrique Porto</t>
+          <t>André Carvalho</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>11584.13</v>
+        <v>10983.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>37616</v>
+        <v>67333</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luna da Conceição</t>
+          <t>Esther Silveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45102</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>9691.360000000001</v>
+        <v>4758.47</v>
       </c>
     </row>
   </sheetData>
